--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_3_bus_ward34_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_3_bus_ward34_isolated.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,22 +598,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.196854674247624</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255229875</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.154118912460759</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>24.88238360195755</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-91.57079613650039</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>156.6237715611726</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.698885808159099</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.4199934651846081</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>1.487391974297142</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>11.6695036403142</v>
+        <v>10.36827052971088</v>
       </c>
       <c r="R3">
-        <v>-114.9022326483807</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>178.5622957883083</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.813877230418872</v>
+        <v>0.9909306888778329</v>
       </c>
       <c r="O4">
-        <v>0.1679973861065166</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>1.737987159198202</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>4.345887283859319</v>
+        <v>4.40962044340401</v>
       </c>
       <c r="R4">
-        <v>-114.9022326345494</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>179.5078832215586</v>
+        <v>175.2518098001974</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,55 +896,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463598034968</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="D5">
-        <v>6.408463598034968</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.99856366834814</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="G5">
-        <v>73.99856366834814</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.905255929387166</v>
+        <v>0.9526279648039776</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.905255929390482</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-1.98218031107416E-09</v>
+        <v>-1.434779169258611E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999998011</v>
+        <v>-179.9999999999793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.858230233730621</v>
+        <v>0.9710601884679122</v>
       </c>
       <c r="O6">
-        <v>0.08399869313200352</v>
+        <v>0.08399869303568253</v>
       </c>
       <c r="P6">
-        <v>1.821604781761214</v>
+        <v>0.9357190172509382</v>
       </c>
       <c r="Q6">
-        <v>2.119529057152494</v>
+        <v>2.248283018886295</v>
       </c>
       <c r="R6">
-        <v>-114.90223258114</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>179.7652387237694</v>
+        <v>177.6667554660106</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.141284384037997</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.059278148949505</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100967022771526</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.81341271178473</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-91.28334085735267</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>152.4653558457432</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.326605047672132</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.9019226052800855</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.114567649405624</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>25.13400946366071</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-98.6623705020957</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>162.8758777304775</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.369955400415088</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.8174068168603177</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.1792938769782</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>22.04361858617452</v>
+        <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-98.97748982596939</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>165.6023208649669</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,55 +1263,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.152657156212834</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>2.152657156212834</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.85674377224909</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>24.85674377224909</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.400953384100119</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.7610792363635425</v>
+        <v>0.575822689067786</v>
       </c>
       <c r="P5">
-        <v>1.223796308451575</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>20.09326483224018</v>
+        <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-99.22644568702964</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>167.2573245345824</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.385253751630837</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.7892411664068723</v>
+        <v>0.6184394066324072</v>
       </c>
       <c r="P6">
-        <v>1.20141982299486</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>21.05753141382061</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-99.09752580741133</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>166.4451481355419</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.141284384037997</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.059278148949505</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100967022771526</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.81341271178473</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-91.28334085735267</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>152.4653558457432</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.326605047672132</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.9019226052800855</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.114567649405624</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>25.13400946366071</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-98.6623705020957</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>162.8758777304775</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.369955400415088</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.8174068168603177</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.1792938769782</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>22.04361858617452</v>
+        <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-98.97748982596939</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>165.6023208649669</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.152657156212834</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>2.152657156212834</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.85674377224909</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>24.85674377224909</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.400953384100119</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>0.7610792363635425</v>
+        <v>0.575822689067786</v>
       </c>
       <c r="P5">
-        <v>1.223796308451575</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>20.09326483224018</v>
+        <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-99.22644568702964</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>167.2573245345824</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.385253751630837</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>0.7892411664068723</v>
+        <v>0.6184394066324072</v>
       </c>
       <c r="P6">
-        <v>1.20141982299486</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>21.05753141382061</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-99.09752580741133</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>166.4451481355419</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.105487813812672</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.8804584269916205</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>1.026462850283963</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>25.83072858399685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.1665453840008</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>157.2201384833008</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558515719459398</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977952166</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>1.228692038935969</v>
+        <v>0.7639425556035887</v>
       </c>
       <c r="Q3">
-        <v>16.54773368618496</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-121.7925562847148</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>-179.265235460373</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.646419050699855</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191391434</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
-        <v>1.530679862709309</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>6.190992308971956</v>
+        <v>5.32248358880222</v>
       </c>
       <c r="R4">
-        <v>-121.7925562718907</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>-179.7640846637192</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105639190284</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>5.212105639190284</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187662554</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="G5">
-        <v>60.18421187662554</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.732050807392158</v>
+        <v>0.8660254037886728</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.732050807396557</v>
+        <v>0.8660254037890387</v>
       </c>
       <c r="Q5">
-        <v>-2.896654072089167E-09</v>
+        <v>1.923112272131359E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999970968</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.686771781740722</v>
+        <v>0.8935891429579176</v>
       </c>
       <c r="O6">
-        <v>0.1007412596152934</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>1.631361891066396</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>3.016960361010572</v>
+        <v>2.746170498569063</v>
       </c>
       <c r="R6">
-        <v>-121.7925562241018</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>-179.8893225182497</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.105487813812672</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.8804584269916205</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>1.026462850283963</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>25.83072858399685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.1665453840008</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>157.2201384833008</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558515719459398</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977952166</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>1.228692038935969</v>
+        <v>0.7639425556035887</v>
       </c>
       <c r="Q3">
-        <v>16.54773368618496</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-121.7925562847148</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>-179.265235460373</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.646419050699855</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191391434</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
-        <v>1.530679862709309</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>6.190992308971956</v>
+        <v>5.32248358880222</v>
       </c>
       <c r="R4">
-        <v>-121.7925562718907</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>-179.7640846637192</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105639190284</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>5.212105639190284</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187662554</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="G5">
-        <v>60.18421187662554</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.732050807392158</v>
+        <v>0.8660254037886728</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.732050807396557</v>
+        <v>0.8660254037890387</v>
       </c>
       <c r="Q5">
-        <v>-2.896654072089167E-09</v>
+        <v>1.923112272131359E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999970968</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.686771781740722</v>
+        <v>0.8935891429579176</v>
       </c>
       <c r="O6">
-        <v>0.1007412596152934</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>1.631361891066396</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>3.016960361010572</v>
+        <v>2.746170498569063</v>
       </c>
       <c r="R6">
-        <v>-121.7925562241018</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>-179.8893225182497</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041553614391383</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.9615729355909101</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9984891045316587</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>28.85087853429531</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-91.51132863892325</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>152.6548352013302</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.208411116575794</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.8296997009356498</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>1.001011503637617</v>
+        <v>0.8551123540217649</v>
       </c>
       <c r="Q3">
-        <v>25.70333443157505</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-99.17392234700085</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>162.8612274387124</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.238413145827122</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.724667412723887</v>
+        <v>0.588425524625115</v>
       </c>
       <c r="P4">
-        <v>1.098110948553089</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>20.87012766074197</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-97.50360857616697</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>165.374337777387</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,55 +2731,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.852844217243435</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>1.852844217243435</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.39480215183877</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>21.39480215183877</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.26310418185684</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.6550793552473212</v>
+        <v>0.4850955530357798</v>
       </c>
       <c r="P5">
-        <v>1.163853655309942</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>17.78968082425932</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-96.09329345782538</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>166.8150176612127</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.250306810793062</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>0.689821269961175</v>
+        <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>1.130892995515764</v>
+        <v>0.8588706570454891</v>
       </c>
       <c r="Q6">
-        <v>19.31469792297125</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-96.8340176981886</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>166.1156150899818</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041553614391383</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.9615729355909101</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9984891045316587</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>28.85087853429531</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-91.51132863892325</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>152.6548352013302</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.208411116575794</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.8296997009356498</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>1.001011503637617</v>
+        <v>0.8551123540217649</v>
       </c>
       <c r="Q3">
-        <v>25.70333443157505</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-99.17392234700085</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>162.8612274387124</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.238413145827122</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.724667412723887</v>
+        <v>0.588425524625115</v>
       </c>
       <c r="P4">
-        <v>1.098110948553089</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>20.87012766074197</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-97.50360857616697</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>165.374337777387</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,55 +3098,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.852844217243435</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>1.852844217243435</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.39480215183877</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>21.39480215183877</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.26310418185684</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.6550793552473212</v>
+        <v>0.4850955530357798</v>
       </c>
       <c r="P5">
-        <v>1.163853655309942</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>17.78968082425932</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-96.09329345782538</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>166.8150176612127</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.250306810793062</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>0.689821269961175</v>
+        <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>1.130892995515764</v>
+        <v>0.8588706570454891</v>
       </c>
       <c r="Q6">
-        <v>19.31469792297125</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-96.8340176981886</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>166.1156150899818</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.044003168520926</v>
+        <v>0.9855289333155797</v>
       </c>
       <c r="O2">
-        <v>1.159499173151312</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.099554197744056</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>31.95074581684348</v>
+        <v>32.33756670924906</v>
       </c>
       <c r="R2">
-        <v>-88.45563951480776</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>146.5176648693503</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8113858893776321</v>
+        <v>0.5160681836901986</v>
       </c>
       <c r="O3">
-        <v>1.412709221321054</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>1.159980044979284</v>
+        <v>0.776701630114077</v>
       </c>
       <c r="Q3">
-        <v>42.13972572382362</v>
+        <v>50.26234521814142</v>
       </c>
       <c r="R3">
-        <v>-82.6656674296633</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S3">
-        <v>132.3878995399018</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7992296498837093</v>
+        <v>0.506240598973688</v>
       </c>
       <c r="O4">
-        <v>1.528339461199044</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>1.124351060925191</v>
+        <v>0.6253440371463844</v>
       </c>
       <c r="Q4">
-        <v>50.60264473381402</v>
+        <v>74.8899778574548</v>
       </c>
       <c r="R4">
-        <v>-83.83527453463969</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>126.6650948504478</v>
+        <v>102.1824476978297</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.261788373357308</v>
+        <v>5.549892275514634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60.7578986755337</v>
+        <v>64.08463598483597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.031856995199941</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801362</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603965</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.8009812412773466</v>
+        <v>0.5500000119538261</v>
       </c>
       <c r="O5">
-        <v>1.605737593607478</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>1.107141354269757</v>
+        <v>0.5500000118969863</v>
       </c>
       <c r="Q5">
-        <v>56.30653681175671</v>
+        <v>89.99999999404237</v>
       </c>
       <c r="R5">
-        <v>-84.52124774618869</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>122.6712194003101</v>
+        <v>90.00000000595057</v>
       </c>
       <c r="T5">
-        <v>5.261788373357308</v>
+        <v>5.549892275514634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7991144667876457</v>
+        <v>0.5235436402866926</v>
       </c>
       <c r="O6">
-        <v>1.567010467130312</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.115068645059021</v>
+        <v>0.5843678239000876</v>
       </c>
       <c r="Q6">
-        <v>53.45771509508769</v>
+        <v>82.75981206765216</v>
       </c>
       <c r="R6">
-        <v>-84.18673152492602</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S6">
-        <v>124.6835641411053</v>
+        <v>96.48316610499727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.044003168520926</v>
+        <v>0.9855289333155797</v>
       </c>
       <c r="O2">
-        <v>1.159499173151312</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.099554197744056</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>31.95074581684348</v>
+        <v>32.33756670924906</v>
       </c>
       <c r="R2">
-        <v>-88.45563951480776</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>146.5176648693503</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8113858893776321</v>
+        <v>0.5160681836901986</v>
       </c>
       <c r="O3">
-        <v>1.412709221321054</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>1.159980044979284</v>
+        <v>0.776701630114077</v>
       </c>
       <c r="Q3">
-        <v>42.13972572382362</v>
+        <v>50.26234521814142</v>
       </c>
       <c r="R3">
-        <v>-82.6656674296633</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S3">
-        <v>132.3878995399018</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7992296498837093</v>
+        <v>0.506240598973688</v>
       </c>
       <c r="O4">
-        <v>1.528339461199044</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>1.124351060925191</v>
+        <v>0.6253440371463844</v>
       </c>
       <c r="Q4">
-        <v>50.60264473381402</v>
+        <v>74.8899778574548</v>
       </c>
       <c r="R4">
-        <v>-83.83527453463969</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>126.6650948504478</v>
+        <v>102.1824476978297</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.261788373357308</v>
+        <v>5.549892275514634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>60.7578986755337</v>
+        <v>64.08463598483597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.031856995199941</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801362</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603965</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.8009812412773466</v>
+        <v>0.5500000119538261</v>
       </c>
       <c r="O5">
-        <v>1.605737593607478</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>1.107141354269757</v>
+        <v>0.5500000118969863</v>
       </c>
       <c r="Q5">
-        <v>56.30653681175671</v>
+        <v>89.99999999404237</v>
       </c>
       <c r="R5">
-        <v>-84.52124774618869</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>122.6712194003101</v>
+        <v>90.00000000595057</v>
       </c>
       <c r="T5">
-        <v>5.261788373357308</v>
+        <v>5.549892275514634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7991144667876457</v>
+        <v>0.5235436402866926</v>
       </c>
       <c r="O6">
-        <v>1.567010467130312</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.115068645059021</v>
+        <v>0.5843678239000876</v>
       </c>
       <c r="Q6">
-        <v>53.45771509508769</v>
+        <v>82.75981206765216</v>
       </c>
       <c r="R6">
-        <v>-84.18673152492602</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S6">
-        <v>124.6835641411053</v>
+        <v>96.48316610499727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08437707373591</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.113789827579345</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.102031418359422</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>30.36128103002879</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.47889533550428</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.1178166620747</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.016532764716553</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.170648945274469</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.118197575781493</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>31.7760737341948</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-87.21132567094375</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>145.4625911716798</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.002124222311999</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.201146151352803</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.105767998878634</v>
+        <v>0.9992901481674377</v>
       </c>
       <c r="Q4">
-        <v>33.30322915922078</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-87.26410047910275</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>144.0264695353414</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.344185378537663</v>
+        <v>1.388525286637516</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.52131580278957</v>
+        <v>16.03330896033544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.031856995199941</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801362</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603965</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.9929235121640563</v>
+        <v>0.8648802219738845</v>
       </c>
       <c r="O5">
-        <v>1.22147816465711</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.097874756301412</v>
+        <v>0.9703007874836254</v>
       </c>
       <c r="Q5">
-        <v>34.34547481658191</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-87.29781960746898</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>143.0513873955424</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.344185378537663</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9974826085047428</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.211312105576069</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.101781488871916</v>
+        <v>0.984733957808979</v>
       </c>
       <c r="Q6">
-        <v>33.82194862111528</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-87.28110153786248</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>143.5406748346714</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4473,22 +4473,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.08437707373591</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.113789827579345</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.102031418359422</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>30.36128103002879</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.47889533550428</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.1178166620747</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.016532764716553</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.170648945274469</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.118197575781493</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>31.7760737341948</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-87.21132567094375</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>145.4625911716798</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.002124222311999</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.201146151352803</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.105767998878634</v>
+        <v>0.9992901481674377</v>
       </c>
       <c r="Q4">
-        <v>33.30322915922078</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-87.26410047910275</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>144.0264695353414</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.344185378537663</v>
+        <v>1.388525286637516</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.52131580278957</v>
+        <v>16.03330896033544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.031856995199941</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801362</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0.9743985902603965</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>3.291772033564813</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.9929235121640563</v>
+        <v>0.8648802219738845</v>
       </c>
       <c r="O5">
-        <v>1.22147816465711</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.097874756301412</v>
+        <v>0.9703007874836254</v>
       </c>
       <c r="Q5">
-        <v>34.34547481658191</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-87.29781960746898</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>143.0513873955424</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.344185378537663</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9974826085047428</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.211312105576069</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.101781488871916</v>
+        <v>0.984733957808979</v>
       </c>
       <c r="Q6">
-        <v>33.82194862111528</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-87.28110153786248</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>143.5406748346714</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9448001125247554</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>1.0517780778802</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>1.006269496592816</v>
+        <v>0.9346253859730062</v>
       </c>
       <c r="Q2">
-        <v>31.63983469987947</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-88.1136686665963</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>146.4870619419291</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7339541427049661</v>
+        <v>0.4587681827456681</v>
       </c>
       <c r="O3">
-        <v>1.251755978864679</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>1.078308695135301</v>
+        <v>0.8186035708257497</v>
       </c>
       <c r="Q3">
-        <v>39.14628277307703</v>
+        <v>36.08047684035249</v>
       </c>
       <c r="R3">
-        <v>-81.7253412885749</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S3">
-        <v>134.0223927331845</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7448555824289703</v>
+        <v>0.4341862411763743</v>
       </c>
       <c r="O4">
-        <v>1.380070335083066</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>1.005927198285862</v>
+        <v>0.6102254634619548</v>
       </c>
       <c r="Q4">
-        <v>50.24134203821573</v>
+        <v>70.02690230762916</v>
       </c>
       <c r="R4">
-        <v>-84.51361097778626</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
-        <v>127.210089655647</v>
+        <v>104.0660001426885</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.282555937644178</v>
+        <v>4.513815890981983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49.45069646836992</v>
+        <v>52.12105639461716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.39544558463162</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486820946</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>1.779351893992539</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>3.399730879243776</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.7670697943327868</v>
+        <v>0.500000000017741</v>
       </c>
       <c r="O5">
-        <v>1.467162905023757</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P5">
-        <v>0.9665168974817326</v>
+        <v>0.4999999999842513</v>
       </c>
       <c r="Q5">
-        <v>57.29235536272439</v>
+        <v>89.99999999497189</v>
       </c>
       <c r="R5">
-        <v>-86.09912049073291</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S5">
-        <v>122.1486081983698</v>
+        <v>90.00000000502069</v>
       </c>
       <c r="T5">
-        <v>4.282555937644178</v>
+        <v>4.513815890981983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7545323549629526</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>1.423480481248899</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P6">
-        <v>0.9852605448824912</v>
+        <v>0.5509772745602672</v>
       </c>
       <c r="Q6">
-        <v>53.8187132445503</v>
+        <v>80.72418297166683</v>
       </c>
       <c r="R6">
-        <v>-85.33061645186919</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S6">
-        <v>124.7299471386969</v>
+        <v>97.73474385832507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9448001125247554</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>1.0517780778802</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>1.006269496592816</v>
+        <v>0.9346253859730062</v>
       </c>
       <c r="Q2">
-        <v>31.63983469987947</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-88.1136686665963</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>146.4870619419291</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7339541427049661</v>
+        <v>0.4587681827456681</v>
       </c>
       <c r="O3">
-        <v>1.251755978864679</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>1.078308695135301</v>
+        <v>0.8186035708257497</v>
       </c>
       <c r="Q3">
-        <v>39.14628277307703</v>
+        <v>36.08047684035249</v>
       </c>
       <c r="R3">
-        <v>-81.7253412885749</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S3">
-        <v>134.0223927331845</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7448555824289703</v>
+        <v>0.4341862411763743</v>
       </c>
       <c r="O4">
-        <v>1.380070335083066</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>1.005927198285862</v>
+        <v>0.6102254634619548</v>
       </c>
       <c r="Q4">
-        <v>50.24134203821573</v>
+        <v>70.02690230762916</v>
       </c>
       <c r="R4">
-        <v>-84.51361097778626</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
-        <v>127.210089655647</v>
+        <v>104.0660001426885</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.282555937644178</v>
+        <v>4.513815890981983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>49.45069646836992</v>
+        <v>52.12105639461716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.39544558463162</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486820946</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>1.779351893992539</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>3.399730879243776</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.7670697943327868</v>
+        <v>0.500000000017741</v>
       </c>
       <c r="O5">
-        <v>1.467162905023757</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P5">
-        <v>0.9665168974817326</v>
+        <v>0.4999999999842513</v>
       </c>
       <c r="Q5">
-        <v>57.29235536272439</v>
+        <v>89.99999999497189</v>
       </c>
       <c r="R5">
-        <v>-86.09912049073291</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S5">
-        <v>122.1486081983698</v>
+        <v>90.00000000502069</v>
       </c>
       <c r="T5">
-        <v>4.282555937644178</v>
+        <v>4.513815890981983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7545323549629526</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>1.423480481248899</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P6">
-        <v>0.9852605448824912</v>
+        <v>0.5509772745602672</v>
       </c>
       <c r="Q6">
-        <v>53.8187132445503</v>
+        <v>80.72418297166683</v>
       </c>
       <c r="R6">
-        <v>-85.33061645186919</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S6">
-        <v>124.7299471386969</v>
+        <v>97.73474385832507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9842039034320591</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>1.013539706472241</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.002474387635735</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>30.37489316391911</v>
+        <v>29.85362188757213</v>
       </c>
       <c r="R2">
-        <v>-89.40765247001741</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.0330209340959</v>
+        <v>148.4129753593324</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9223560822887062</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>1.063897792052226</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.018755493117672</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>31.68615203411338</v>
+        <v>28.69014273308586</v>
       </c>
       <c r="R3">
-        <v>-87.08965983350082</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>145.430784195904</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9146332560694237</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>1.101474884673272</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9930626385610898</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>34.10983129442542</v>
+        <v>32.36506606732159</v>
       </c>
       <c r="R4">
-        <v>-87.75272246903987</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>143.7134180307646</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.183187602034367</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.66227361072739</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.39544558463162</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486820946</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>1.779351893992539</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>3.399730879243776</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9104062109026694</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>1.126603673298873</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9764513022724437</v>
+        <v>0.8444687113479696</v>
       </c>
       <c r="Q5">
-        <v>35.74656049854057</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-88.17015490221979</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>142.5189969977372</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.183187602034367</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9124266546557629</v>
+        <v>0.7952361969551069</v>
       </c>
       <c r="O6">
-        <v>1.114031888354956</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>0.9847034802660007</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>34.9263003217318</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-87.96379264584672</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>143.1212447088935</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9842039034320591</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>1.013539706472241</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.002474387635735</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>30.37489316391911</v>
+        <v>29.85362188757213</v>
       </c>
       <c r="R2">
-        <v>-89.40765247001741</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.0330209340959</v>
+        <v>148.4129753593324</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9223560822887062</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>1.063897792052226</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.018755493117672</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>31.68615203411338</v>
+        <v>28.69014273308586</v>
       </c>
       <c r="R3">
-        <v>-87.08965983350082</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>145.430784195904</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9146332560694237</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>1.101474884673272</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9930626385610898</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>34.10983129442542</v>
+        <v>32.36506606732159</v>
       </c>
       <c r="R4">
-        <v>-87.75272246903987</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>143.7134180307646</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.183187602034367</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.66227361072739</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.39544558463162</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486820946</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>1.779351893992539</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>3.399730879243776</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9104062109026694</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>1.126603673298873</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9764513022724437</v>
+        <v>0.8444687113479696</v>
       </c>
       <c r="Q5">
-        <v>35.74656049854057</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-88.17015490221979</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>142.5189969977372</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.183187602034367</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9124266546557629</v>
+        <v>0.7952361969551069</v>
       </c>
       <c r="O6">
-        <v>1.114031888354956</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>0.9847034802660007</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>34.9263003217318</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-87.96379264584672</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>143.1212447088935</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.196854674229285</v>
+        <v>0.9618627255527031</v>
       </c>
       <c r="O2">
-        <v>0.9618627255258124</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.154118912460971</v>
+        <v>0.9618627255389796</v>
       </c>
       <c r="Q2">
-        <v>24.88238360159935</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-91.57079613612899</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>156.6237715602308</v>
+        <v>148.4292038647901</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.698885808077615</v>
+        <v>0.4199934652969321</v>
       </c>
       <c r="O3">
-        <v>0.419993465183349</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>1.487391974265937</v>
+        <v>0.4199934651742211</v>
       </c>
       <c r="Q3">
-        <v>11.6695036381321</v>
+        <v>5.097767356433506</v>
       </c>
       <c r="R3">
-        <v>-114.9022326434756</v>
+        <v>-114.9022326522465</v>
       </c>
       <c r="S3">
-        <v>178.5622957846621</v>
+        <v>125.0977673680541</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.813877230311167</v>
+        <v>0.1679973862502682</v>
       </c>
       <c r="O4">
-        <v>0.167997386112573</v>
+        <v>0.167997386065672</v>
       </c>
       <c r="P4">
-        <v>1.737987159136704</v>
+        <v>0.1679973861131193</v>
       </c>
       <c r="Q4">
-        <v>4.345887281366843</v>
+        <v>5.097767373029851</v>
       </c>
       <c r="R4">
-        <v>-114.9022326189422</v>
+        <v>-114.9022326446281</v>
       </c>
       <c r="S4">
-        <v>179.5078832178619</v>
+        <v>125.0977674187158</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.42845436102153</v>
+        <v>6.408463597548501</v>
       </c>
       <c r="D5">
-        <v>8.268119987278688</v>
+        <v>6.408463597915738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>131.9644240351427</v>
+        <v>73.9985636627309</v>
       </c>
       <c r="G5">
-        <v>95.47202600694952</v>
+        <v>73.99856366697139</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.905255929249615</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.905255929256541</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-6.321710410133697E-09</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999938436</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.323019124389276</v>
+        <v>11.09978454910767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.858230233629361</v>
+        <v>0.08399869323511394</v>
       </c>
       <c r="O6">
-        <v>0.08399869315814187</v>
+        <v>0.08399869303403772</v>
       </c>
       <c r="P6">
-        <v>1.821604781741768</v>
+        <v>0.08399869309315236</v>
       </c>
       <c r="Q6">
-        <v>2.119529056145618</v>
+        <v>5.097767401000481</v>
       </c>
       <c r="R6">
-        <v>-114.9022325126126</v>
+        <v>-114.9022326316208</v>
       </c>
       <c r="S6">
-        <v>179.7652387205463</v>
+        <v>125.097767503462</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.196854674229285</v>
+        <v>0.9618627255527031</v>
       </c>
       <c r="O2">
-        <v>0.9618627255258124</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.154118912460971</v>
+        <v>0.9618627255389796</v>
       </c>
       <c r="Q2">
-        <v>24.88238360159935</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-91.57079613612899</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>156.6237715602308</v>
+        <v>148.4292038647901</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.698885808077615</v>
+        <v>0.4199934652969321</v>
       </c>
       <c r="O3">
-        <v>0.419993465183349</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>1.487391974265937</v>
+        <v>0.4199934651742211</v>
       </c>
       <c r="Q3">
-        <v>11.6695036381321</v>
+        <v>5.097767356433506</v>
       </c>
       <c r="R3">
-        <v>-114.9022326434756</v>
+        <v>-114.9022326522465</v>
       </c>
       <c r="S3">
-        <v>178.5622957846621</v>
+        <v>125.0977673680541</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.813877230311167</v>
+        <v>0.1679973862502682</v>
       </c>
       <c r="O4">
-        <v>0.167997386112573</v>
+        <v>0.167997386065672</v>
       </c>
       <c r="P4">
-        <v>1.737987159136704</v>
+        <v>0.1679973861131193</v>
       </c>
       <c r="Q4">
-        <v>4.345887281366843</v>
+        <v>5.097767373029851</v>
       </c>
       <c r="R4">
-        <v>-114.9022326189422</v>
+        <v>-114.9022326446281</v>
       </c>
       <c r="S4">
-        <v>179.5078832178619</v>
+        <v>125.0977674187158</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.42845436102153</v>
+        <v>6.408463597548501</v>
       </c>
       <c r="D5">
-        <v>8.268119987278688</v>
+        <v>6.408463597915738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>131.9644240351427</v>
+        <v>73.9985636627309</v>
       </c>
       <c r="G5">
-        <v>95.47202600694952</v>
+        <v>73.99856366697139</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.905255929249615</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.905255929256541</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-6.321710410133697E-09</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999938436</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.323019124389276</v>
+        <v>11.09978454910767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.858230233629361</v>
+        <v>0.08399869323511394</v>
       </c>
       <c r="O6">
-        <v>0.08399869315814187</v>
+        <v>0.08399869303403772</v>
       </c>
       <c r="P6">
-        <v>1.821604781741768</v>
+        <v>0.08399869309315236</v>
       </c>
       <c r="Q6">
-        <v>2.119529056145618</v>
+        <v>5.097767401000481</v>
       </c>
       <c r="R6">
-        <v>-114.9022325126126</v>
+        <v>-114.9022326316208</v>
       </c>
       <c r="S6">
-        <v>179.7652387205463</v>
+        <v>125.097767503462</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.118158040875974</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.082833937507516</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.099292839010449</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.51702784646184</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.58089864234286</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>151.0635072657039</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.198472899328525</v>
+        <v>1.026319339815347</v>
       </c>
       <c r="O3">
-        <v>1.014651223451851</v>
+        <v>0.9019226052886102</v>
       </c>
       <c r="P3">
-        <v>1.094835116943097</v>
+        <v>0.9562158676264629</v>
       </c>
       <c r="Q3">
-        <v>27.87736997872482</v>
+        <v>22.29958416318838</v>
       </c>
       <c r="R3">
-        <v>-93.52433298788957</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>155.5960784668046</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.216566254260983</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>0.9781478091660092</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.118051795364528</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>26.37292630234873</v>
+        <v>20.80236550736362</v>
       </c>
       <c r="R4">
-        <v>-93.53774589194823</v>
+        <v>-98.97748982579562</v>
       </c>
       <c r="S4">
-        <v>157.0549374505322</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.614361711573778</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.455309562252784</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.64104337493091</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>16.80446735041763</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.229082926357937</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>0.9538122313087339</v>
+        <v>0.7610792363898123</v>
       </c>
       <c r="P5">
-        <v>1.133918436862789</v>
+        <v>0.8821046938247632</v>
       </c>
       <c r="Q5">
-        <v>25.39500729573165</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-93.54725819101657</v>
+        <v>-99.22644568570351</v>
       </c>
       <c r="S5">
-        <v>157.9939285396136</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.473131743867881</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.222780063610034</v>
+        <v>0.9625161923336193</v>
       </c>
       <c r="O6">
-        <v>0.9659800169293218</v>
+        <v>0.7892411664004486</v>
       </c>
       <c r="P6">
-        <v>1.125947315741045</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>25.88146427650302</v>
+        <v>20.27026305687973</v>
       </c>
       <c r="R6">
-        <v>-93.54244213030081</v>
+        <v>-99.09752580832856</v>
       </c>
       <c r="S6">
-        <v>157.5277409809773</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.118158040875974</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.082833937507516</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.099292839010449</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.51702784646184</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.58089864234286</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>151.0635072657039</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.198472899328525</v>
+        <v>1.026319339815347</v>
       </c>
       <c r="O3">
-        <v>1.014651223451851</v>
+        <v>0.9019226052886102</v>
       </c>
       <c r="P3">
-        <v>1.094835116943097</v>
+        <v>0.9562158676264629</v>
       </c>
       <c r="Q3">
-        <v>27.87736997872482</v>
+        <v>22.29958416318838</v>
       </c>
       <c r="R3">
-        <v>-93.52433298788957</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>155.5960784668046</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.216566254260983</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>0.9781478091660092</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.118051795364528</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>26.37292630234873</v>
+        <v>20.80236550736362</v>
       </c>
       <c r="R4">
-        <v>-93.53774589194823</v>
+        <v>-98.97748982579562</v>
       </c>
       <c r="S4">
-        <v>157.0549374505322</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.614361711573778</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.455309562252784</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.64104337493091</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>16.80446735041763</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.229082926357937</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>0.9538122313087339</v>
+        <v>0.7610792363898123</v>
       </c>
       <c r="P5">
-        <v>1.133918436862789</v>
+        <v>0.8821046938247632</v>
       </c>
       <c r="Q5">
-        <v>25.39500729573165</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-93.54725819101657</v>
+        <v>-99.22644568570351</v>
       </c>
       <c r="S5">
-        <v>157.9939285396136</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.473131743867881</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.222780063610034</v>
+        <v>0.9625161923336193</v>
       </c>
       <c r="O6">
-        <v>0.9659800169293218</v>
+        <v>0.7892411664004486</v>
       </c>
       <c r="P6">
-        <v>1.125947315741045</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>25.88146427650302</v>
+        <v>20.27026305687973</v>
       </c>
       <c r="R6">
-        <v>-93.54244213030081</v>
+        <v>-99.09752580832856</v>
       </c>
       <c r="S6">
-        <v>157.5277409809773</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.105487813798674</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.8804584269925058</v>
+        <v>0.8804584269810506</v>
       </c>
       <c r="P2">
-        <v>1.026462850287703</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>25.83072858349636</v>
+        <v>26.83345461615414</v>
       </c>
       <c r="R2">
-        <v>-93.16654538362414</v>
+        <v>-93.16654538443235</v>
       </c>
       <c r="S2">
-        <v>157.2201384824201</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558515719403131</v>
+        <v>0.503706297868402</v>
       </c>
       <c r="O3">
-        <v>0.5037062977841839</v>
+        <v>0.5037062978020516</v>
       </c>
       <c r="P3">
-        <v>1.228692038926149</v>
+        <v>0.5037062977551596</v>
       </c>
       <c r="Q3">
-        <v>16.54773368397735</v>
+        <v>-1.792556277737473</v>
       </c>
       <c r="R3">
-        <v>-121.7925562817437</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>-179.2652354640034</v>
+        <v>118.2074437235356</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.646419050615859</v>
+        <v>0.2014825192544585</v>
       </c>
       <c r="O4">
-        <v>0.2014825191356616</v>
+        <v>0.2014825191336002</v>
       </c>
       <c r="P4">
-        <v>1.530679862666544</v>
+        <v>0.2014825191159128</v>
       </c>
       <c r="Q4">
-        <v>6.190992306551501</v>
+        <v>-1.792556257958278</v>
       </c>
       <c r="R4">
-        <v>-121.7925562612527</v>
+        <v>-121.792556283604</v>
       </c>
       <c r="S4">
-        <v>-179.7640846672669</v>
+        <v>118.2074437589756</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.235718048807842</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>7.32986703354701</v>
+        <v>5.212105639194835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>106.6448860327739</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>84.63801409885059</v>
+        <v>60.18421187667809</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.732050807281455</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.732050807288913</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-7.06024448801396E-09</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999930899</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.851471342212695</v>
+        <v>9.027631780706923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.686771781658505</v>
+        <v>0.1007412597173991</v>
       </c>
       <c r="O6">
-        <v>0.100741259621519</v>
+        <v>0.1007412595783718</v>
       </c>
       <c r="P6">
-        <v>1.631361891055572</v>
+        <v>0.100741259570419</v>
       </c>
       <c r="Q6">
-        <v>3.016960359961693</v>
+        <v>-1.792556224682957</v>
       </c>
       <c r="R6">
-        <v>-121.7925561751881</v>
+        <v>-121.7925562755524</v>
       </c>
       <c r="S6">
-        <v>-179.8893225212611</v>
+        <v>118.2074438183522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8474,22 +8474,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.105487813798674</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.8804584269925058</v>
+        <v>0.8804584269810506</v>
       </c>
       <c r="P2">
-        <v>1.026462850287703</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>25.83072858349636</v>
+        <v>26.83345461615414</v>
       </c>
       <c r="R2">
-        <v>-93.16654538362414</v>
+        <v>-93.16654538443235</v>
       </c>
       <c r="S2">
-        <v>157.2201384824201</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558515719403131</v>
+        <v>0.503706297868402</v>
       </c>
       <c r="O3">
-        <v>0.5037062977841839</v>
+        <v>0.5037062978020516</v>
       </c>
       <c r="P3">
-        <v>1.228692038926149</v>
+        <v>0.5037062977551596</v>
       </c>
       <c r="Q3">
-        <v>16.54773368397735</v>
+        <v>-1.792556277737473</v>
       </c>
       <c r="R3">
-        <v>-121.7925562817437</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>-179.2652354640034</v>
+        <v>118.2074437235356</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.646419050615859</v>
+        <v>0.2014825192544585</v>
       </c>
       <c r="O4">
-        <v>0.2014825191356616</v>
+        <v>0.2014825191336002</v>
       </c>
       <c r="P4">
-        <v>1.530679862666544</v>
+        <v>0.2014825191159128</v>
       </c>
       <c r="Q4">
-        <v>6.190992306551501</v>
+        <v>-1.792556257958278</v>
       </c>
       <c r="R4">
-        <v>-121.7925562612527</v>
+        <v>-121.792556283604</v>
       </c>
       <c r="S4">
-        <v>-179.7640846672669</v>
+        <v>118.2074437589756</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.235718048807842</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>7.32986703354701</v>
+        <v>5.212105639194835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>106.6448860327739</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>84.63801409885059</v>
+        <v>60.18421187667809</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.732050807281455</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.732050807288913</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-7.06024448801396E-09</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999930899</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.851471342212695</v>
+        <v>9.027631780706923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.686771781658505</v>
+        <v>0.1007412597173991</v>
       </c>
       <c r="O6">
-        <v>0.100741259621519</v>
+        <v>0.1007412595783718</v>
       </c>
       <c r="P6">
-        <v>1.631361891055572</v>
+        <v>0.100741259570419</v>
       </c>
       <c r="Q6">
-        <v>3.016960359961693</v>
+        <v>-1.792556224682957</v>
       </c>
       <c r="R6">
-        <v>-121.7925561751881</v>
+        <v>-121.7925562755524</v>
       </c>
       <c r="S6">
-        <v>-179.8893225212611</v>
+        <v>118.2074438183522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.018457608138919</v>
+        <v>0.9843405649673949</v>
       </c>
       <c r="O2">
-        <v>0.9832145752047637</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9986414311333959</v>
+        <v>0.972452191228846</v>
       </c>
       <c r="Q2">
-        <v>29.50347169652063</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.67242022308291</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>151.1684732207968</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091878208777371</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9234200583810062</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9921663681295873</v>
+        <v>0.8688572961474457</v>
       </c>
       <c r="Q3">
-        <v>28.00475269386867</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-93.72470928087412</v>
+        <v>-99.17392234672846</v>
       </c>
       <c r="S3">
-        <v>155.668754335119</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.103249013345086</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.877881239406392</v>
+        <v>0.7246674127323594</v>
       </c>
       <c r="P4">
-        <v>1.031320762563869</v>
+        <v>0.8201110567856947</v>
       </c>
       <c r="Q4">
-        <v>25.60383696647421</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-92.89394831336151</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>157.1792674522758</v>
+        <v>150.7228482726653</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.42623922660375</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.313872056567757</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.46879202816957</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>15.17128771080243</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.111886771776576</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.8476337342205964</v>
+        <v>0.6550793552710618</v>
       </c>
       <c r="P5">
-        <v>1.057797250651847</v>
+        <v>0.7889349581209016</v>
       </c>
       <c r="Q5">
-        <v>24.03229261026373</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-92.29059916480483</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>158.1237298422936</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.331530189647785</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107463738807566</v>
+        <v>0.8474804505269403</v>
       </c>
       <c r="O6">
-        <v>0.8627455316434439</v>
+        <v>0.6898212699575315</v>
       </c>
       <c r="P6">
-        <v>1.044523533878929</v>
+        <v>0.8043804515477034</v>
       </c>
       <c r="Q6">
-        <v>24.8150005366129</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-92.59756200694731</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>157.6574836169892</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.018457608138919</v>
+        <v>0.9843405649673949</v>
       </c>
       <c r="O2">
-        <v>0.9832145752047637</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9986414311333959</v>
+        <v>0.972452191228846</v>
       </c>
       <c r="Q2">
-        <v>29.50347169652063</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.67242022308291</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>151.1684732207968</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091878208777371</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9234200583810062</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9921663681295873</v>
+        <v>0.8688572961474457</v>
       </c>
       <c r="Q3">
-        <v>28.00475269386867</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-93.72470928087412</v>
+        <v>-99.17392234672846</v>
       </c>
       <c r="S3">
-        <v>155.668754335119</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.103249013345086</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.877881239406392</v>
+        <v>0.7246674127323594</v>
       </c>
       <c r="P4">
-        <v>1.031320762563869</v>
+        <v>0.8201110567856947</v>
       </c>
       <c r="Q4">
-        <v>25.60383696647421</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-92.89394831336151</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>157.1792674522758</v>
+        <v>150.7228482726653</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.42623922660375</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.313872056567757</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.46879202816957</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>15.17128771080243</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
-        <v>3.395445584631539</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.817278486821042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>1.779351893992579</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>3.399730879243912</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.111886771776576</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.8476337342205964</v>
+        <v>0.6550793552710618</v>
       </c>
       <c r="P5">
-        <v>1.057797250651847</v>
+        <v>0.7889349581209016</v>
       </c>
       <c r="Q5">
-        <v>24.03229261026373</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-92.29059916480483</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>158.1237298422936</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.331530189647785</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107463738807566</v>
+        <v>0.8474804505269403</v>
       </c>
       <c r="O6">
-        <v>0.8627455316434439</v>
+        <v>0.6898212699575315</v>
       </c>
       <c r="P6">
-        <v>1.044523533878929</v>
+        <v>0.8043804515477034</v>
       </c>
       <c r="Q6">
-        <v>24.8150005366129</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-92.59756200694731</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>157.6574836169892</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9780,22 +9780,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9931,22 +9931,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10233,22 +10233,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10384,22 +10384,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.196854674247624</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255229875</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.154118912460759</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>24.88238360195755</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-91.57079613650039</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>156.6237715611726</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.698885808159099</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.4199934651846081</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>1.487391974297142</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>11.6695036403142</v>
+        <v>10.36827052971088</v>
       </c>
       <c r="R3">
-        <v>-114.9022326483807</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>178.5622957883083</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.813877230418872</v>
+        <v>0.9909306888778329</v>
       </c>
       <c r="O4">
-        <v>0.1679973861065166</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>1.737987159198202</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>4.345887283859319</v>
+        <v>4.40962044340401</v>
       </c>
       <c r="R4">
-        <v>-114.9022326345494</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>179.5078832215586</v>
+        <v>175.2518098001974</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,55 +10682,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463598034968</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="D5">
-        <v>6.408463598034968</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.99856366834814</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="G5">
-        <v>73.99856366834814</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="H5">
-        <v>3.031856995199887</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.741005764801474</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604587</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>3.291772033564957</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.905255929387166</v>
+        <v>0.9526279648039776</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.905255929390482</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-1.98218031107416E-09</v>
+        <v>-1.434779169258611E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999998011</v>
+        <v>-179.9999999999793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.858230233730621</v>
+        <v>0.9710601884679122</v>
       </c>
       <c r="O6">
-        <v>0.08399869313200352</v>
+        <v>0.08399869303568253</v>
       </c>
       <c r="P6">
-        <v>1.821604781761214</v>
+        <v>0.9357190172509382</v>
       </c>
       <c r="Q6">
-        <v>2.119529057152494</v>
+        <v>2.248283018886295</v>
       </c>
       <c r="R6">
-        <v>-114.90223258114</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>179.7652387237694</v>
+        <v>177.6667554660106</v>
       </c>
     </row>
   </sheetData>
